--- a/data/combined data/combined data - 1 cleaning/cleaning step 3 - education/schools.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 3 - education/schools.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 3 - education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bbfcd27a554a9ef/04_NK Elites/Data Cleaning_0531/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D70A2E4-1030-4EC5-9C03-CFC513A81F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FBB783C-2CC0-A64A-8769-8AEBB371D063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B52D064B-51F8-4C6B-BDFB-A8E5AB47CFD4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="16200" xr2:uid="{B52D064B-51F8-4C6B-BDFB-A8E5AB47CFD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="117">
   <si>
     <t>SchoolName</t>
   </si>
@@ -45,13 +48,355 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>김일성종합대학</t>
+  </si>
+  <si>
+    <t>경기여자고등학교</t>
+  </si>
+  <si>
+    <t>김책공업종합대학</t>
+  </si>
+  <si>
+    <t>남산고등중학교</t>
+  </si>
+  <si>
+    <t>김일성군사종합대학</t>
+  </si>
+  <si>
+    <t>김일성사범대학</t>
+  </si>
+  <si>
+    <t>평양여자사범대학</t>
+  </si>
+  <si>
+    <t>만경대혁명학원</t>
+  </si>
+  <si>
+    <t>프라하공과대학</t>
+  </si>
+  <si>
+    <t>김일성정치대학</t>
+  </si>
+  <si>
+    <t>김일성고급당학교</t>
+  </si>
+  <si>
+    <t>평양국제관계대학</t>
+  </si>
+  <si>
+    <t>평양외국어대학</t>
+  </si>
+  <si>
+    <t>소련공산대학</t>
+  </si>
+  <si>
+    <t>레닌그라드대학</t>
+  </si>
+  <si>
+    <t>평양신학원</t>
+  </si>
+  <si>
+    <t>모스크바종합대학</t>
+  </si>
+  <si>
+    <t>프룬제군사대학</t>
+  </si>
+  <si>
+    <t>고려대학교</t>
+  </si>
+  <si>
+    <t>평양기계대학</t>
+  </si>
+  <si>
+    <t>소련보병학교</t>
+  </si>
+  <si>
+    <t>길림학원</t>
+  </si>
+  <si>
+    <t>삼석인민학교</t>
+  </si>
+  <si>
+    <t>평양제4인민학교</t>
+  </si>
+  <si>
+    <t>청진사범대학</t>
+  </si>
+  <si>
+    <t>칭다오중학교</t>
+  </si>
+  <si>
+    <t>창덕학교</t>
+  </si>
+  <si>
+    <t>화성의숙</t>
+  </si>
+  <si>
+    <t>육문중학교</t>
+  </si>
+  <si>
+    <t>개천여자중학교</t>
+  </si>
+  <si>
+    <t>인민경제대학</t>
+  </si>
+  <si>
+    <t>브라티슬라바대학</t>
+  </si>
+  <si>
+    <t>연희전문학교</t>
+  </si>
+  <si>
+    <t>제2중앙정치학교</t>
+  </si>
+  <si>
+    <t>보현사불교학원</t>
+  </si>
+  <si>
+    <t>라이프치히공과대학</t>
+  </si>
+  <si>
+    <t>철도운수대학</t>
+  </si>
+  <si>
+    <t>리과대학</t>
+  </si>
+  <si>
+    <t>평양건설건재대학</t>
+  </si>
+  <si>
+    <t>덕천공업대학</t>
+  </si>
+  <si>
+    <t>모스크바고급당학교</t>
+  </si>
+  <si>
+    <t>통신군관학교</t>
+  </si>
+  <si>
+    <t>해주혁명학원</t>
+  </si>
+  <si>
+    <t>김일성정치군사대학</t>
+  </si>
+  <si>
+    <t>희천공업대학</t>
+  </si>
+  <si>
+    <t>김형직사범대학</t>
+  </si>
+  <si>
+    <t>용성기계대학</t>
+  </si>
+  <si>
+    <t>평양의과대학</t>
+  </si>
+  <si>
+    <t>만주비행학교</t>
+  </si>
+  <si>
+    <t>중앙당학교</t>
+  </si>
+  <si>
+    <t>남만주대학</t>
+  </si>
+  <si>
+    <t>모스크바국제대학</t>
+  </si>
+  <si>
+    <t>김책공군대학</t>
+  </si>
+  <si>
+    <t>평양체육대학</t>
+  </si>
+  <si>
+    <t>강건군관학교</t>
+  </si>
+  <si>
+    <t>소련고급당학교</t>
+  </si>
+  <si>
+    <t>나진해운대학</t>
+  </si>
+  <si>
+    <t>도네프로페드롭스크대학</t>
+  </si>
+  <si>
+    <t>타쉬켄트종합대학</t>
+  </si>
+  <si>
+    <t>중앙보안간부학교</t>
+  </si>
+  <si>
+    <t>평양사범대학</t>
+  </si>
+  <si>
+    <t>청진광산금속대학</t>
+  </si>
+  <si>
+    <t>함흥의과대학</t>
+  </si>
+  <si>
+    <t>함흥수리대학</t>
+  </si>
+  <si>
+    <t>평양교통고등학교</t>
+  </si>
+  <si>
+    <t>함흥화학공업대학</t>
+  </si>
+  <si>
+    <t>신의주외국어학원</t>
+  </si>
+  <si>
+    <t>평양음악대학</t>
+  </si>
+  <si>
+    <t>문평제련소공장대학</t>
+  </si>
+  <si>
+    <t>계응상사리원농업대학</t>
+  </si>
+  <si>
+    <t>평양체신대학</t>
+  </si>
+  <si>
+    <t>레닌그라드공과대학</t>
+  </si>
+  <si>
+    <t>난카이대학</t>
+  </si>
+  <si>
+    <t>평양여자사범대</t>
+  </si>
+  <si>
+    <t>남산고급중학교</t>
+  </si>
+  <si>
+    <t>평양제1중학교</t>
+  </si>
+  <si>
+    <t>남산유치원</t>
+  </si>
+  <si>
+    <t>베이징외국어대학</t>
+  </si>
+  <si>
+    <t>하얼빈공대</t>
+  </si>
+  <si>
+    <t>조치대학</t>
+  </si>
+  <si>
+    <t>소련철도운수대학</t>
+  </si>
+  <si>
+    <t>모스크바군사대학</t>
+  </si>
+  <si>
+    <t>루마니아공과대학</t>
+  </si>
+  <si>
+    <t>대학교</t>
+  </si>
+  <si>
+    <t>고등학교</t>
+  </si>
+  <si>
+    <t>특수학교</t>
+  </si>
+  <si>
+    <t>대한민국</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>인민학교</t>
+  </si>
+  <si>
+    <t>중학교</t>
+  </si>
+  <si>
+    <t>체코</t>
+  </si>
+  <si>
+    <t>현 연세대</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>소련</t>
+  </si>
+  <si>
+    <t>우즈베키스탄</t>
+  </si>
+  <si>
+    <t>무송제1소학교</t>
+  </si>
+  <si>
+    <t>유치원</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>루마니아</t>
+  </si>
+  <si>
+    <t>북한</t>
+  </si>
+  <si>
+    <t>현 평양제1고등중학교</t>
+  </si>
+  <si>
+    <t>독립군 양성 기지</t>
+  </si>
+  <si>
+    <t>독일</t>
+  </si>
+  <si>
+    <t>일본음악학교</t>
+  </si>
+  <si>
+    <t>소련해군학교</t>
+  </si>
+  <si>
+    <t>소련군사아카데미</t>
+  </si>
+  <si>
+    <t>소련군사대학</t>
+  </si>
+  <si>
+    <t>프다찌슬바다대학</t>
+  </si>
+  <si>
+    <t>소련아카데미</t>
+  </si>
+  <si>
+    <t>소련공군아카데미</t>
+  </si>
+  <si>
+    <t>러시아공군대학</t>
+  </si>
+  <si>
+    <t>레닌군사정치아카데미</t>
+  </si>
+  <si>
+    <t>루마니아공학대학</t>
+  </si>
+  <si>
+    <t>소련해군대학</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,20 +751,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A5CC42-1EF1-4B6C-91A2-A98C6420DDEB}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="23.13671875" customWidth="1"/>
+    <col min="2" max="2" width="17.484375" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +775,1066 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{49A5CC42-1EF1-4B6C-91A2-A98C6420DDEB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
+      <sortCondition ref="A1:A96"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
